--- a/excels/config/server/talent/server_talent_data.xlsx
+++ b/excels/config/server/talent/server_talent_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="22185" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="server_talent_data" sheetId="1" r:id="rId1"/>
@@ -1262,31 +1262,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{2E1590EF-255B-4970-BF19-6704A9A03E4D}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{A2AFBC0B-6B6B-4B37-9887-296DA0F82394}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{21AF6519-88F2-4989-ADB9-7116DF700AEA}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{26F1FFA4-BE47-447B-8B12-0C1351BDB307}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{C7D7F88C-CA23-42B0-A488-0B527F21AFE3}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{E6C5BF33-F068-4F06-A0BB-0CF8EB1CA4FA}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{33965EE5-4E92-4521-B1CA-6C50BE05130F}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{EE4680E6-16E4-4083-96D3-879FFC063842}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{52919EAF-6013-4131-825C-8DEAFA0AD081}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{C6E6291E-4D94-4364-B628-48F8B6FA1914}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -1597,7 +1597,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F7" sqref="F7"/>
+      <selection pane="topRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
